--- a/pizza-delivery-times.xlsx
+++ b/pizza-delivery-times.xlsx
@@ -5,15 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\hf-da-resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\hf-da-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73148C56-8A57-46E5-864F-3EB8A328697E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC91A6E4-C5E0-441C-9A90-98EA46841493}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13373" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="orders" sheetId="6" r:id="rId1"/>
+    <sheet name="orders-work" sheetId="7" r:id="rId2"/>
+    <sheet name="orders-work (2)" sheetId="8" r:id="rId3"/>
+    <sheet name="orders-work (3)" sheetId="9" r:id="rId4"/>
+    <sheet name="orders-work (4)" sheetId="10" r:id="rId5"/>
+    <sheet name="orders-work (5)" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="8">
   <si>
     <t>vendor</t>
   </si>
@@ -49,6 +54,15 @@
   </si>
   <si>
     <t>Pizza Mansion</t>
+  </si>
+  <si>
+    <t>delivery_time_recode</t>
+  </si>
+  <si>
+    <t>delivery_time_zero</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -84,8 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,7 +230,8 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="Stringfest" defaultPivotStyle="Stringfest_Pivot">
+  <tableStyles count="3" defaultTableStyle="Stringfest" defaultPivotStyle="Stringfest_Pivot">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{32AE87E9-7F48-4946-9F93-A2EBFBF1A82F}"/>
     <tableStyle name="Stringfest" pivot="0" count="3" xr9:uid="{80757AD5-BA57-4B3B-81C1-A3519B7631A7}">
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -549,17 +567,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.62890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -570,7 +588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>70777</v>
       </c>
@@ -581,7 +599,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>68119</v>
       </c>
@@ -589,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99109</v>
       </c>
@@ -600,7 +618,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>93944</v>
       </c>
@@ -611,7 +629,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>44036</v>
       </c>
@@ -622,7 +640,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>90076</v>
       </c>
@@ -633,7 +651,7 @@
         <v>18.11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>93944</v>
       </c>
@@ -644,7 +662,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>42887</v>
       </c>
@@ -655,7 +673,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>49679</v>
       </c>
@@ -664,6 +682,723 @@
       </c>
       <c r="C10">
         <v>79.239999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B2506D-9AAE-484D-BE4B-14309E251E64}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>70777</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>68119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>93944</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>44036</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>90076</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>93944</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>42887</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>49679</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>79.239999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D8D223-BDC2-48B3-999B-8E27562E896A}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>70777</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>68119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>93944</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>44036</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>90076</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>42887</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>49679</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>79.239999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16427453-B1D4-4DA7-9AC3-C17AE349197C}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>70777</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>16.68</v>
+      </c>
+      <c r="D2">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>68119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>11.5</v>
+      </c>
+      <c r="D4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>93944</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>21.5</v>
+      </c>
+      <c r="D5">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>44036</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>13.75</v>
+      </c>
+      <c r="D6">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>90076</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>18.11</v>
+      </c>
+      <c r="D7">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>42887</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="D8">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>49679</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>79.239999999999995</v>
+      </c>
+      <c r="D9">
+        <v>79.239999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(C2:C9)</f>
+        <v>25.515714285714285</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(D2:D9)</f>
+        <v>22.326249999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254845AA-7884-4633-939F-8A0A224CFAEA}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>70777</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>16.68</v>
+      </c>
+      <c r="D2">
+        <f>IF(ISBLANK(C2), "Pickup", C2)</f>
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>68119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D9" si="0">IF(ISBLANK(C3), "Pickup", C3)</f>
+        <v>Pickup</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>11.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>93944</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>21.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>44036</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>13.75</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>90076</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>18.11</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>42887</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>49679</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>79.239999999999995</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>79.239999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FF67DB-F238-411B-81F1-FFEB28E990F2}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>70777</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>16.68</v>
+      </c>
+      <c r="D2">
+        <f>IF(ISBLANK(C2), "Pickup", C2)</f>
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>68119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D9" si="0">IF(ISBLANK(C3), "Pickup", C3)</f>
+        <v>Pickup</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>11.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>93944</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>21.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>44036</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>13.75</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>90076</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>18.11</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>42887</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>49679</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>79.239999999999995</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>79.239999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(C2:C9)</f>
+        <v>25.515714285714285</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(D2:D9)</f>
+        <v>25.515714285714285</v>
       </c>
     </row>
   </sheetData>

--- a/pizza-delivery-times.xlsx
+++ b/pizza-delivery-times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\hf-da-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC91A6E4-C5E0-441C-9A90-98EA46841493}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6702A6-C3EF-4BCA-9CE7-0BA88C56B35D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="orders" sheetId="6" r:id="rId1"/>
@@ -568,7 +568,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +935,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
